--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.2.1_TC1.xlsx
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.190015533466694</v>
+        <v>0.1585103557999228</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3413652379852757</v>
+        <v>0.3743823223407795</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.34136523798527574, 'ngram_match_score': 0.19001553346669403, 'weighted_ngram_match_score': 0.25387383936858315, 'syntax_match_score': 0.547945205479452, 'dataflow_match_score': 0.37362637362637363}</t>
+          <t>{'codebleu': 0.3743823223407795, 'ngram_match_score': 0.15851035579992281, 'weighted_ngram_match_score': 0.21964515665517176, 'syntax_match_score': 0.547945205479452, 'dataflow_match_score': 0.5714285714285714}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.6918598332955899</v>
+        <v>0.7699755295458955</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
